--- a/benchmarks/200 apps/200 benchmarks.xlsx
+++ b/benchmarks/200 apps/200 benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suntong/Documents/ZJU/博1/TMC24 OTA/sdiff/benchmarks/200 apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2247E3D8-AA67-C045-A2C3-040A4F7664A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D9B0C9-13A3-6641-81F3-AF9D85F3E366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1680" windowWidth="26700" windowHeight="17460" xr2:uid="{1DD0441E-9E1A-4E73-A701-3C32290FF8B2}"/>
   </bookViews>
@@ -6556,7 +6556,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/benchmarks/200 apps/200 benchmarks.xlsx
+++ b/benchmarks/200 apps/200 benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suntong/Documents/ZJU/博1/TMC24 OTA/sdiff/benchmarks/200 apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D9B0C9-13A3-6641-81F3-AF9D85F3E366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B56548-4953-F142-8AEC-1BA9DD306F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1680" windowWidth="26700" windowHeight="17460" xr2:uid="{1DD0441E-9E1A-4E73-A701-3C32290FF8B2}"/>
+    <workbookView xWindow="2780" yWindow="1600" windowWidth="26700" windowHeight="17460" xr2:uid="{1DD0441E-9E1A-4E73-A701-3C32290FF8B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="2031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4959" uniqueCount="2034">
   <si>
     <t>C100021901</t>
   </si>
@@ -6153,6 +6153,15 @@
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C100130383</t>
+  </si>
+  <si>
+    <t>C100244751</t>
+  </si>
+  <si>
+    <t>C10026044</t>
   </si>
 </sst>
 </file>
@@ -6556,7 +6565,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6586,8 +6595,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2031</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2008</v>
@@ -6603,8 +6612,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>2031</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2008</v>
@@ -6620,8 +6629,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>2031</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2008</v>
@@ -6637,8 +6646,8 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>2031</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2008</v>
@@ -6654,8 +6663,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>2031</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2008</v>
@@ -6671,8 +6680,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>2032</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2008</v>
@@ -6688,8 +6697,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>2</v>
+      <c r="A8" t="s">
+        <v>2032</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2008</v>
@@ -6705,8 +6714,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>2032</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2008</v>
@@ -6722,8 +6731,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>2</v>
+      <c r="A10" t="s">
+        <v>2032</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2008</v>
@@ -6739,8 +6748,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>2</v>
+      <c r="A11" t="s">
+        <v>2032</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2008</v>
@@ -6756,8 +6765,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>3</v>
+      <c r="A12" t="s">
+        <v>2033</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2008</v>
@@ -6773,8 +6782,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>3</v>
+      <c r="A13" t="s">
+        <v>2033</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2008</v>
@@ -6790,8 +6799,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>3</v>
+      <c r="A14" t="s">
+        <v>2033</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2008</v>
@@ -6807,8 +6816,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>3</v>
+      <c r="A15" t="s">
+        <v>2033</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2008</v>
@@ -6824,8 +6833,8 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>3</v>
+      <c r="A16" t="s">
+        <v>2033</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2008</v>
